--- a/PLSstatic/PLSstatic_predicted_factors_matrix_5.xlsx
+++ b/PLSstatic/PLSstatic_predicted_factors_matrix_5.xlsx
@@ -443,42 +443,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.540407678265276</v>
+        <v>-1.540407678265278</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.357137848489022</v>
+        <v>-4.858687610135589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5190086768970718</v>
+        <v>-0.519008676897071</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6205066887739639</v>
+        <v>0.9505066755281615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9694740348354319</v>
+        <v>0.9694740348354314</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8041251361557258</v>
+        <v>-3.393773433574415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.713475488973951</v>
+        <v>0.7134754889739495</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6433691785353229</v>
+        <v>0.8263685032558445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8211782141201476</v>
+        <v>-0.8211782141201494</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6160079727687214</v>
+        <v>-1.800952556809995</v>
       </c>
     </row>
   </sheetData>
